--- a/Excel_luban/Datas/TodayGiftConfig.xlsx
+++ b/Excel_luban/Datas/TodayGiftConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25905" windowHeight="12975"/>
+    <workbookView windowWidth="27945" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="TodayGiftConfig" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>##var</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>(list#sep=;),ItemProp</t>
   </si>
   <si>
     <t>##group</t>
@@ -867,7 +870,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -885,6 +888,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1217,7 +1221,7 @@
   <dimension ref="A1:AB10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="13.5"/>
@@ -1315,8 +1319,8 @@
       <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>8</v>
+      <c r="E3" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>7</v>
@@ -1346,20 +1350,20 @@
     </row>
     <row r="4" s="2" customFormat="1" spans="1:28">
       <c r="A4" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="9"/>
-      <c r="C4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>10</v>
+      <c r="C4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="8"/>
@@ -1386,22 +1390,22 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="15" spans="1:28">
       <c r="A5" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>14</v>
       </c>
+      <c r="D5" s="12" t="s">
+        <v>15</v>
+      </c>
       <c r="E5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="11" t="s">
         <v>16</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="8"/>
@@ -1428,87 +1432,87 @@
     </row>
     <row r="6" s="3" customFormat="1" spans="2:6">
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="12" t="s">
         <v>20</v>
       </c>
+      <c r="E6" s="13" t="s">
+        <v>21</v>
+      </c>
       <c r="F6" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" spans="2:6">
       <c r="B7" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="E7" s="13" t="s">
         <v>26</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="1" spans="2:6">
       <c r="B8" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="E8" s="13" t="s">
         <v>31</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" s="3" customFormat="1" spans="2:6">
       <c r="B9" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="E9" s="13" t="s">
         <v>36</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10" s="3" customFormat="1" spans="2:6">
       <c r="B10" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="E10" s="13" t="s">
         <v>41</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
